--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Sort</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면에서 라인 이미지가 보이는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_ui_display_login_image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면 웰컴 텍스트 문구 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_ui_display_login_welcome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,15 +56,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면 안내 텍스트 문구 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면에서 로그인 버튼이 작동하는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login</t>
+    <t>test_login_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_button_facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면에서 페이스북 로그인 버튼이 작동하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 로그인 버튼이 작동하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 안내 텍스트 문구 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 웰컴 텍스트 문구 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 라인 이미지가 보이는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,6 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,9 +357,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +663,7 @@
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -676,283 +682,307 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="5"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="5"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J8:M8"/>
@@ -965,55 +995,9 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>